--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -109,9 +109,6 @@
     <t>&lt;#auto page breaks&gt;</t>
   </si>
   <si>
-    <t>Quý &lt;#iQuy&gt; ( Năm &lt;#iNam&gt; )</t>
-  </si>
-  <si>
     <t>Kinh phí được cấp</t>
   </si>
   <si>
@@ -124,27 +121,9 @@
     <t>VNĐ</t>
   </si>
   <si>
-    <t xml:space="preserve">THỦ TRƯỞNG ĐƠN VỊ </t>
-  </si>
-  <si>
     <t>Ngày …. tháng …. năm ….</t>
   </si>
   <si>
-    <t xml:space="preserve">BÁO CÁO THỰC HIỆN KINH PHÍ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI             </t>
-  </si>
-  <si>
-    <t>Đơn vị tính: USD/VNĐ</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ CẤP TRÊN</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
-    <t>Đơn vị tối mật</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -158,12 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thuyết minh báo cáo: </t>
-  </si>
-  <si>
-    <t>NGƯỜI LẬP</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG BAN TÀI CHÍNH</t>
   </si>
   <si>
     <t>*</t>
@@ -263,6 +236,31 @@
   </si>
   <si>
     <t>&lt;#listColumn.sGiaiDoan&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#txtTieuDe1&gt;
+&lt;#txtTieuDe2&gt;             </t>
+  </si>
+  <si>
+    <t>Từ năm &lt;#iTuNam&gt; đến năm &lt;#iDenNam&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị tính: &lt;#sDonViTinh&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapDuoi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh3&gt;</t>
   </si>
 </sst>
 </file>
@@ -472,7 +470,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,9 +511,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -560,24 +555,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,6 +569,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -880,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,60 +918,60 @@
         <v>21</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="B2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -1007,15 +1008,15 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="P4" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
@@ -1042,219 +1043,219 @@
     </row>
     <row r="6" spans="1:22" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="28" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="J8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="L8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="N8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="P8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
+      <c r="R8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
     </row>
     <row r="10" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
+      <c r="Q10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1289,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1301,10 +1302,10 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1318,62 +1319,62 @@
       <c r="G13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="P13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="P13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="23"/>
+      <c r="B14" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="46"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="P14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
+      <c r="P14" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="P15" s="17"/>
@@ -1439,10 +1440,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1457,10 +1458,10 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
@@ -1716,16 +1717,11 @@
       <c r="V29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="N6:O6"/>
+  <mergeCells count="21">
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:E7"/>
@@ -1736,7 +1732,13 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1939,35 +1941,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>57</v>
+      <c r="H10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="30" t="s">
-        <v>56</v>
+      <c r="N10" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>58</v>
+      <c r="H13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,6 +571,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -881,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView view="pageLayout" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,23 +921,23 @@
         <v>65</v>
       </c>
       <c r="C1" s="26"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
       <c r="U1" s="23"/>
@@ -948,23 +948,23 @@
         <v>66</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
@@ -1043,37 +1043,37 @@
     </row>
     <row r="6" spans="1:22" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="27" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="47" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48" t="s">
         <v>37</v>
       </c>
       <c r="S6" s="34"/>
@@ -1083,35 +1083,35 @@
     </row>
     <row r="7" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
@@ -1119,8 +1119,8 @@
     </row>
     <row r="8" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1173,8 +1173,8 @@
     </row>
     <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="44" t="s">
         <v>61</v>
       </c>
@@ -1319,11 +1319,11 @@
       <c r="G13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -1333,27 +1333,27 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
@@ -1363,18 +1363,18 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="P15" s="17"/>
@@ -1718,6 +1718,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="D1:R1"/>
     <mergeCell ref="D2:R2"/>
@@ -1734,11 +1739,6 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
